--- a/src/Coding_Exercises/StarPatterns/RightAngledTriangled_StarPatterns.xlsx
+++ b/src/Coding_Exercises/StarPatterns/RightAngledTriangled_StarPatterns.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dejagadeesh\IdeaProjects\JavaChallenges45\src\Coding_Exercises\StarPatterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785A052E-CA03-434D-B288-F412CE9EDEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6114FF5-2BA3-428E-A504-C57DF68F1BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D33C402D-070A-47E8-BDCA-2B8382BC2201}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D33C402D-070A-47E8-BDCA-2B8382BC2201}"/>
   </bookViews>
   <sheets>
     <sheet name="Right Angled Triangles" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="5">
   <si>
     <t>*</t>
   </si>
@@ -187,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -195,15 +196,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -227,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -235,6 +229,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,67 +567,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AA403A-291E-4DE7-B957-6378974DE14F}">
-  <dimension ref="B1:R17"/>
+  <dimension ref="B1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="11"/>
+    <row r="1" spans="2:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="18"/>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
+    <row r="3" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="15"/>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="5">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5">
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
         <v>2</v>
       </c>
-      <c r="L3" s="5">
-        <v>3</v>
-      </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="20">
+      <c r="L3" s="2">
+        <v>3</v>
+      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="17">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -639,8 +635,8 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
         <v>0</v>
       </c>
       <c r="I4" s="1"/>
@@ -649,15 +645,14 @@
       <c r="L4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="20">
+      <c r="M4" s="10"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="17">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -668,8 +663,8 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
         <v>1</v>
       </c>
       <c r="I5" s="1"/>
@@ -680,15 +675,14 @@
       <c r="L5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="20">
+      <c r="M5" s="10"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="17">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -701,8 +695,8 @@
         <v>0</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
@@ -715,15 +709,14 @@
       <c r="L6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="20">
+      <c r="M6" s="10"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="17">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -738,8 +731,7 @@
       <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="5">
+      <c r="H7" s="2">
         <v>3</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -754,101 +746,75 @@
       <c r="L7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="21"/>
-      <c r="C8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="6" t="s">
+      <c r="M7" s="10"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="21"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="21"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="20"/>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="18"/>
+      <c r="H9" s="16"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="18"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="17"/>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
         <v>2</v>
       </c>
-      <c r="F11" s="5">
-        <v>3</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
         <v>2</v>
       </c>
-      <c r="L11" s="5">
-        <v>3</v>
-      </c>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="20">
+      <c r="L11" s="2">
+        <v>3</v>
+      </c>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="17">
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -863,8 +829,8 @@
       <c r="F12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -879,10 +845,10 @@
       <c r="L12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="14"/>
-    </row>
-    <row r="13" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="20">
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="17">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -895,8 +861,8 @@
         <v>0</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
         <v>1</v>
       </c>
       <c r="I13" s="1"/>
@@ -909,10 +875,10 @@
       <c r="L13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M13" s="14"/>
-    </row>
-    <row r="14" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="20">
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="17">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -923,8 +889,8 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
         <v>2</v>
       </c>
       <c r="I14" s="1"/>
@@ -935,10 +901,10 @@
       <c r="L14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="20">
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="17">
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -947,8 +913,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="5">
+      <c r="H15" s="2">
         <v>3</v>
       </c>
       <c r="I15" s="1"/>
@@ -957,39 +922,37 @@
       <c r="L15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M15" s="14"/>
-    </row>
-    <row r="16" spans="2:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="12"/>
-      <c r="C16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="6" t="s">
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="9"/>
+      <c r="C16" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="I16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="14"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="11"/>
     </row>
     <row r="17" spans="2:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="17"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1002,6 +965,322 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAAEE97-C199-403B-9348-F5EF315DFB9D}">
+  <dimension ref="D3:Y8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="4:25" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>9</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="U3">
+        <v>6</v>
+      </c>
+      <c r="V3">
+        <v>7</v>
+      </c>
+      <c r="W3">
+        <v>8</v>
+      </c>
+      <c r="X3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="4:25" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="4:25" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="4:25" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="4:25" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:25" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>
